--- a/artisan/data/artisandata.xlsx
+++ b/artisan/data/artisandata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,114 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>தக்காளி</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Traditional தக்காளி made with sustainable materials</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>உள்ளூர் கைவினைத் திறனை சிறப்பாக வெளிப்படுத்தும் அருமையான தக்காளி</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-16 02:34:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>வெங்காயம்</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Traditional வெங்காயம் made with sustainable materials</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>நிலையான பொருட்களால் செய்யப்பட்ட பாரம்பரிய வெங்காயம்</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-16 02:35:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>கைப் பொருள்கள்</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Authentic கைப் பொருள்கள் featuring intricate designs and premium materials</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>உள்ளூர் கைவினைத் திறனை சிறப்பாக வெளிப்படுத்தும் அருமையான கைப் பொருள்கள்</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-16 02:42:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artisan/data/artisandata.xlsx
+++ b/artisan/data/artisandata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,82 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f085c14f-2fc9-4f17-a2b6-6ddaa2dafb7b</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>kerchief</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Handcrafted kerchief made with traditional techniques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>உயர்தர kerchief, பாரம்பரிய கைவினைத் திறனால் உருவாக்கப்பட்டது</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>890</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>e74a9b1c-2c57-46af-a6a9-0f32747e47fa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>கம்பர் கட்</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Handcrafted கம்பர் கட் made with traditional techniques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>உயர்தர கம்பர் கட், பாரம்பரிய கைவினைத் திறனால் உருவாக்கப்பட்டது</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:31:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
